--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-virtual-service</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-virtual-service</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -740,7 +740,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="8.65234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-virtual-service.xlsx
+++ b/StructureDefinition-no-basis-virtual-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
